--- a/python_spreadsheet.xlsx
+++ b/python_spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\PycharmProjects\DBMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{14FBA9B5-D71B-475E-9C9C-E1DB5D8BD230}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6A92BAF0-2882-41B8-A2A4-D1D40899CE38}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -39,12 +39,6 @@
     <t>Subj. Name</t>
   </si>
   <si>
-    <t>PUL</t>
-  </si>
-  <si>
-    <t>Permanent</t>
-  </si>
-  <si>
     <t>Subj. code</t>
   </si>
   <si>
@@ -78,67 +72,7 @@
     <t>Department: Dept. of Electronics and Computer Engineering</t>
   </si>
   <si>
-    <t>Prof. Dr. Subarna Shakya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ph.D. </t>
-  </si>
-  <si>
-    <t>Dr. Sanjeeb Prasad Panday</t>
-  </si>
-  <si>
-    <t>sanjeeb@ioe.edu.np</t>
-  </si>
-  <si>
-    <t>drss@ioe.edu.np</t>
-  </si>
-  <si>
-    <t>15+</t>
-  </si>
-  <si>
-    <t>10+</t>
-  </si>
-  <si>
-    <t>Cloud Computing</t>
-  </si>
-  <si>
-    <t>I/II</t>
-  </si>
-  <si>
-    <t>Image Processing</t>
-  </si>
-  <si>
-    <t>Dr. Basanta Joshi</t>
-  </si>
-  <si>
-    <t>Contract</t>
-  </si>
-  <si>
-    <t>Big Data Applications and Analytics</t>
-  </si>
-  <si>
-    <t>Information Security and Audit</t>
-  </si>
-  <si>
-    <t>Deepen Chapagain</t>
-  </si>
-  <si>
-    <t>4+</t>
-  </si>
-  <si>
-    <t>2+</t>
-  </si>
-  <si>
-    <t>Msc</t>
-  </si>
-  <si>
     <t>24 Poush 2074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basanta@ioe.edu.np </t>
-  </si>
-  <si>
-    <t xml:space="preserve">deepen@ioe.edu.np </t>
   </si>
   <si>
     <t>Effective Exp. On this subj. till the date)</t>
@@ -617,7 +551,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="M7" sqref="A4:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -640,7 +574,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D1" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
@@ -648,15 +582,15 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
       <c r="L1" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -664,7 +598,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
@@ -672,184 +606,104 @@
     </row>
     <row r="3" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2">
-        <v>9851212305</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="I4" s="2"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="8">
-        <v>9851190040</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="2">
-        <v>5</v>
-      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2">
-        <v>9851032303</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I6" s="2"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5</v>
-      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2">
-        <v>9840052621</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -1172,14 +1026,8 @@
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="J7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-  </hyperlinks>
   <pageMargins left="0.17" right="0.17" top="0.61" bottom="0.44" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/python_spreadsheet.xlsx
+++ b/python_spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\PycharmProjects\DBMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{14FBA9B5-D71B-475E-9C9C-E1DB5D8BD230}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7EC67738-A141-4DB6-BBC0-7E573CEA7A77}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$M$3</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$3:$M$28</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -39,12 +40,6 @@
     <t>Subj. Name</t>
   </si>
   <si>
-    <t>PUL</t>
-  </si>
-  <si>
-    <t>Permanent</t>
-  </si>
-  <si>
     <t>Subj. code</t>
   </si>
   <si>
@@ -78,67 +73,7 @@
     <t>Department: Dept. of Electronics and Computer Engineering</t>
   </si>
   <si>
-    <t>Prof. Dr. Subarna Shakya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ph.D. </t>
-  </si>
-  <si>
-    <t>Dr. Sanjeeb Prasad Panday</t>
-  </si>
-  <si>
-    <t>sanjeeb@ioe.edu.np</t>
-  </si>
-  <si>
-    <t>drss@ioe.edu.np</t>
-  </si>
-  <si>
-    <t>15+</t>
-  </si>
-  <si>
-    <t>10+</t>
-  </si>
-  <si>
-    <t>Cloud Computing</t>
-  </si>
-  <si>
-    <t>I/II</t>
-  </si>
-  <si>
-    <t>Image Processing</t>
-  </si>
-  <si>
-    <t>Dr. Basanta Joshi</t>
-  </si>
-  <si>
-    <t>Contract</t>
-  </si>
-  <si>
-    <t>Big Data Applications and Analytics</t>
-  </si>
-  <si>
-    <t>Information Security and Audit</t>
-  </si>
-  <si>
-    <t>Deepen Chapagain</t>
-  </si>
-  <si>
-    <t>4+</t>
-  </si>
-  <si>
-    <t>2+</t>
-  </si>
-  <si>
-    <t>Msc</t>
-  </si>
-  <si>
     <t>24 Poush 2074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basanta@ioe.edu.np </t>
-  </si>
-  <si>
-    <t xml:space="preserve">deepen@ioe.edu.np </t>
   </si>
   <si>
     <t>Effective Exp. On this subj. till the date)</t>
@@ -613,11 +548,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M28"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <dimension ref="A1:M391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -640,7 +575,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D1" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
@@ -648,15 +583,15 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
       <c r="L1" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -664,7 +599,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
@@ -672,186 +607,106 @@
     </row>
     <row r="3" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2">
-        <v>9851212305</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="I4" s="2"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="8">
-        <v>9851190040</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="2">
-        <v>5</v>
-      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2">
-        <v>9851032303</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I6" s="2"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5</v>
-      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2">
-        <v>9840052621</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I7" s="2"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -866,7 +721,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -881,7 +736,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -896,7 +751,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -911,7 +766,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -926,7 +781,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -941,7 +796,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -956,7 +811,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -971,7 +826,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -986,7 +841,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1001,7 +856,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1016,7 +871,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1031,7 +886,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1046,7 +901,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1061,7 +916,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1076,7 +931,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1091,7 +946,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1106,7 +961,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1121,7 +976,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1136,7 +991,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1151,7 +1006,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1166,20 +1021,384 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
+    <row r="29" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <autoFilter ref="A3:M3" xr:uid="{26591E8C-0853-4C65-8E25-A52F34D0833F}">
+    <filterColumn colId="12">
+      <filters>
+        <filter val="Aff. Type (Permanent, Contract, Visiting)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="J7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-  </hyperlinks>
   <pageMargins left="0.17" right="0.17" top="0.61" bottom="0.44" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/python_spreadsheet.xlsx
+++ b/python_spreadsheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\PycharmProjects\DBMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7EC67738-A141-4DB6-BBC0-7E573CEA7A77}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{181A2B01-7DAF-43B2-A83E-EA9BBD309BCA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,7 +171,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -191,15 +191,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -209,6 +200,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -552,7 +544,7 @@
   <dimension ref="A1:M391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -574,14 +566,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
       <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
@@ -590,19 +582,19 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="10" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -647,244 +639,244 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
     </row>
     <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
     </row>
     <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
     </row>
     <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
